--- a/Code/Results/Cases/Case_5_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_64/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.47697294294291</v>
+        <v>13.36918167694865</v>
       </c>
       <c r="C2">
-        <v>6.934718119548076</v>
+        <v>9.272512497948107</v>
       </c>
       <c r="D2">
-        <v>5.041175978849614</v>
+        <v>5.778062008106062</v>
       </c>
       <c r="E2">
-        <v>8.176712389978812</v>
+        <v>12.1838076560925</v>
       </c>
       <c r="F2">
-        <v>20.3995602386801</v>
+        <v>28.04071463641512</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.41333142123637</v>
+        <v>9.725229834376744</v>
       </c>
       <c r="L2">
-        <v>6.784750111951582</v>
+        <v>9.654118617904535</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.75731691126237</v>
+        <v>19.7023607037884</v>
       </c>
       <c r="O2">
-        <v>16.68405980600478</v>
+        <v>25.14028807524863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.55405768214714</v>
+        <v>13.13119030080535</v>
       </c>
       <c r="C3">
-        <v>6.928272483447953</v>
+        <v>9.272639888474773</v>
       </c>
       <c r="D3">
-        <v>4.917014135929239</v>
+        <v>5.735678529978734</v>
       </c>
       <c r="E3">
-        <v>8.044137988167492</v>
+        <v>12.19356746323869</v>
       </c>
       <c r="F3">
-        <v>20.04128110240947</v>
+        <v>28.06402801069375</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.73179274149622</v>
+        <v>9.555774066044942</v>
       </c>
       <c r="L3">
-        <v>6.580804472362589</v>
+        <v>9.640379588668608</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.96201516240175</v>
+        <v>19.76338015506624</v>
       </c>
       <c r="O3">
-        <v>16.61815862899342</v>
+        <v>25.20186646751767</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.97478157446216</v>
+        <v>12.98559683549393</v>
       </c>
       <c r="C4">
-        <v>6.924991624945891</v>
+        <v>9.272997837982807</v>
       </c>
       <c r="D4">
-        <v>4.838615421062367</v>
+        <v>5.709035498388669</v>
       </c>
       <c r="E4">
-        <v>7.966682051479417</v>
+        <v>12.20178365642184</v>
       </c>
       <c r="F4">
-        <v>19.83515469442408</v>
+        <v>28.08503175340089</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.29071393046047</v>
+        <v>9.451911282571546</v>
       </c>
       <c r="L4">
-        <v>6.455842768207283</v>
+        <v>9.633608499674478</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.09051910295008</v>
+        <v>19.80259224988303</v>
       </c>
       <c r="O4">
-        <v>16.59045797942633</v>
+        <v>25.24461826394898</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.73209127340462</v>
+        <v>12.9264819509243</v>
       </c>
       <c r="C5">
-        <v>6.923824074381976</v>
+        <v>9.27321444502256</v>
       </c>
       <c r="D5">
-        <v>4.806148259280117</v>
+        <v>5.698026013061099</v>
       </c>
       <c r="E5">
-        <v>7.936127219682302</v>
+        <v>12.20569123904664</v>
       </c>
       <c r="F5">
-        <v>19.75465863786051</v>
+        <v>28.09527168203802</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.10531319498834</v>
+        <v>9.40968817855599</v>
       </c>
       <c r="L5">
-        <v>6.405056842757404</v>
+        <v>9.631270221080007</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.14361594517208</v>
+        <v>19.81901180687411</v>
       </c>
       <c r="O5">
-        <v>16.58228151204186</v>
+        <v>25.26328090185238</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.69139663816539</v>
+        <v>12.91668138473353</v>
       </c>
       <c r="C6">
-        <v>6.923640415336406</v>
+        <v>9.273254696618094</v>
       </c>
       <c r="D6">
-        <v>4.800726522611132</v>
+        <v>5.696188805371674</v>
       </c>
       <c r="E6">
-        <v>7.931115002881992</v>
+        <v>12.20637388196929</v>
       </c>
       <c r="F6">
-        <v>19.74150411910558</v>
+        <v>28.09707347280736</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.07418693568311</v>
+        <v>9.402684851734813</v>
       </c>
       <c r="L6">
-        <v>6.396634298527422</v>
+        <v>9.630907443025398</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.15247737067082</v>
+        <v>19.82176489333643</v>
       </c>
       <c r="O6">
-        <v>16.58110883509341</v>
+        <v>25.26645471008668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.97153522336845</v>
+        <v>12.98479861037407</v>
       </c>
       <c r="C7">
-        <v>6.924975193907118</v>
+        <v>9.273000472270084</v>
       </c>
       <c r="D7">
-        <v>4.838179625089175</v>
+        <v>5.70888763234242</v>
       </c>
       <c r="E7">
-        <v>7.966265872073819</v>
+        <v>12.20183409016055</v>
       </c>
       <c r="F7">
-        <v>19.8340549023353</v>
+        <v>28.08516304976966</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.28823641140235</v>
+        <v>9.451341360798542</v>
       </c>
       <c r="L7">
-        <v>6.455157200217679</v>
+        <v>9.633575257290675</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.09123219988863</v>
+        <v>19.80281190526856</v>
       </c>
       <c r="O7">
-        <v>16.59033524087916</v>
+        <v>25.24486493292666</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.14917134730576</v>
+        <v>13.28705985826047</v>
       </c>
       <c r="C8">
-        <v>6.932354717341456</v>
+        <v>9.272498602780955</v>
       </c>
       <c r="D8">
-        <v>4.998828198014234</v>
+        <v>5.763578839534339</v>
       </c>
       <c r="E8">
-        <v>8.130192879994402</v>
+        <v>12.18671153180527</v>
       </c>
       <c r="F8">
-        <v>20.27316312494079</v>
+        <v>28.04736415674</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.18304276517977</v>
+        <v>9.666796492801961</v>
       </c>
       <c r="L8">
-        <v>6.714416863798323</v>
+        <v>9.64903739697912</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.82732531518792</v>
+        <v>19.72303862707965</v>
       </c>
       <c r="O8">
-        <v>16.65863062008276</v>
+        <v>25.1604934234587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.41598535467675</v>
+        <v>13.88051993990096</v>
       </c>
       <c r="C9">
-        <v>6.952235714495464</v>
+        <v>9.273716838910687</v>
       </c>
       <c r="D9">
-        <v>5.295703319320269</v>
+        <v>5.865762446356571</v>
       </c>
       <c r="E9">
-        <v>8.48210294512181</v>
+        <v>12.17468212701302</v>
       </c>
       <c r="F9">
-        <v>21.2429549958991</v>
+        <v>28.02634610395997</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.75774475573595</v>
+        <v>10.08836208218168</v>
       </c>
       <c r="L9">
-        <v>7.221989355071688</v>
+        <v>9.692451669269396</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.33112778010022</v>
+        <v>19.58039658848083</v>
       </c>
       <c r="O9">
-        <v>16.89798309849943</v>
+        <v>25.0343357762852</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.91832402238887</v>
+        <v>14.31240521158933</v>
       </c>
       <c r="C10">
-        <v>6.970204623891349</v>
+        <v>9.275932052549802</v>
       </c>
       <c r="D10">
-        <v>5.501551395055715</v>
+        <v>5.937551829611298</v>
       </c>
       <c r="E10">
-        <v>8.7579754551469</v>
+        <v>12.17655675785764</v>
       </c>
       <c r="F10">
-        <v>22.01953614262811</v>
+        <v>28.04327429014515</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.80488560549039</v>
+        <v>10.39439118618923</v>
       </c>
       <c r="L10">
-        <v>7.590860365066907</v>
+        <v>9.732158788330286</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.97803559621241</v>
+        <v>19.48392081074432</v>
       </c>
       <c r="O10">
-        <v>17.14347582193777</v>
+        <v>24.96570272352355</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.56618460267617</v>
+        <v>14.50706629594707</v>
       </c>
       <c r="C11">
-        <v>6.979125582761811</v>
+        <v>9.27722169438376</v>
       </c>
       <c r="D11">
-        <v>5.592317430724751</v>
+        <v>5.969456681710498</v>
       </c>
       <c r="E11">
-        <v>8.886961408352894</v>
+        <v>12.17972496434739</v>
       </c>
       <c r="F11">
-        <v>22.38617061178199</v>
+        <v>28.05798632658008</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.25757380149379</v>
+        <v>10.53218297331903</v>
       </c>
       <c r="L11">
-        <v>7.757159133604391</v>
+        <v>9.751876467942912</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.81953399479186</v>
+        <v>19.44182059080064</v>
       </c>
       <c r="O11">
-        <v>17.27133094779334</v>
+        <v>24.93972091132089</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.8064618120723</v>
+        <v>14.58044749519699</v>
       </c>
       <c r="C12">
-        <v>6.982612574652723</v>
+        <v>9.277750173795015</v>
       </c>
       <c r="D12">
-        <v>5.626258955511979</v>
+        <v>5.981426595320527</v>
       </c>
       <c r="E12">
-        <v>8.936283640957743</v>
+        <v>12.18125636423915</v>
       </c>
       <c r="F12">
-        <v>22.5268766156583</v>
+        <v>28.06456257728848</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.42561276325674</v>
+        <v>10.58410726971059</v>
       </c>
       <c r="L12">
-        <v>7.819871487930047</v>
+        <v>9.759576965336885</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.75978733597454</v>
+        <v>19.42613397200694</v>
       </c>
       <c r="O12">
-        <v>17.32215212110985</v>
+        <v>24.93063685954016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.75493759268685</v>
+        <v>14.56465946377105</v>
       </c>
       <c r="C13">
-        <v>6.981856724311193</v>
+        <v>9.27763457868064</v>
       </c>
       <c r="D13">
-        <v>5.618968386041862</v>
+        <v>5.978853686726512</v>
       </c>
       <c r="E13">
-        <v>8.925640322008119</v>
+        <v>12.18091182146929</v>
       </c>
       <c r="F13">
-        <v>22.49649072566327</v>
+        <v>28.06310161969438</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.38957273213846</v>
+        <v>10.57293652942042</v>
       </c>
       <c r="L13">
-        <v>7.806377539494987</v>
+        <v>9.757908193489843</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.77264314998146</v>
+        <v>19.42950100671261</v>
       </c>
       <c r="O13">
-        <v>17.31109869467046</v>
+        <v>24.93255968993849</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.58605328163318</v>
+        <v>14.51311048532633</v>
       </c>
       <c r="C14">
-        <v>6.979410270029572</v>
+        <v>9.277264371058235</v>
       </c>
       <c r="D14">
-        <v>5.595118516536026</v>
+        <v>5.970443713684759</v>
       </c>
       <c r="E14">
-        <v>8.891009729944686</v>
+        <v>12.17984431449424</v>
       </c>
       <c r="F14">
-        <v>22.3977094048528</v>
+        <v>28.05850723542914</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.27146616907251</v>
+        <v>10.53646019345647</v>
       </c>
       <c r="L14">
-        <v>7.762323992251671</v>
+        <v>9.752505330438401</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.81461328306228</v>
+        <v>19.44052492281626</v>
       </c>
       <c r="O14">
-        <v>17.27546339763758</v>
+        <v>24.93895842936899</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.48195046620286</v>
+        <v>14.48148980993376</v>
       </c>
       <c r="C15">
-        <v>6.977925962700149</v>
+        <v>9.277042820474753</v>
       </c>
       <c r="D15">
-        <v>5.580453386582334</v>
+        <v>5.965277703422068</v>
       </c>
       <c r="E15">
-        <v>8.869859059305758</v>
+        <v>12.17923358705983</v>
       </c>
       <c r="F15">
-        <v>22.33744493495032</v>
+        <v>28.05582383192399</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.19868239738954</v>
+        <v>10.51408280609756</v>
       </c>
       <c r="L15">
-        <v>7.735304646156135</v>
+        <v>9.7492262473843</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.84035600170266</v>
+        <v>19.44731067087346</v>
       </c>
       <c r="O15">
-        <v>17.25395123674133</v>
+        <v>24.94297615874865</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.87527432018111</v>
+        <v>14.29964098801476</v>
       </c>
       <c r="C16">
-        <v>6.969636764360268</v>
+        <v>9.275853408628123</v>
       </c>
       <c r="D16">
-        <v>5.495560343322122</v>
+        <v>5.935451325052981</v>
       </c>
       <c r="E16">
-        <v>8.749614091964053</v>
+        <v>12.17639619508241</v>
       </c>
       <c r="F16">
-        <v>21.99584013828171</v>
+        <v>28.04245366503965</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.77482667155244</v>
+        <v>10.38535322340602</v>
       </c>
       <c r="L16">
-        <v>7.579958096646346</v>
+        <v>9.730903143688058</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.98843416709136</v>
+        <v>19.48670802053663</v>
       </c>
       <c r="O16">
-        <v>17.13545258381764</v>
+        <v>24.96750624263573</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.4940322286032</v>
+        <v>14.18756701828569</v>
       </c>
       <c r="C17">
-        <v>6.964743851457943</v>
+        <v>9.275195653114395</v>
       </c>
       <c r="D17">
-        <v>5.442732739289662</v>
+        <v>5.916958526178123</v>
       </c>
       <c r="E17">
-        <v>8.676724379930951</v>
+        <v>12.1752477325567</v>
       </c>
       <c r="F17">
-        <v>21.78966197335008</v>
+        <v>28.03604534447198</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.50875584614372</v>
+        <v>10.30598119744872</v>
       </c>
       <c r="L17">
-        <v>7.48423894369505</v>
+        <v>9.720083487309262</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.07979754650898</v>
+        <v>19.51133390676499</v>
       </c>
       <c r="O17">
-        <v>17.06695880590657</v>
+        <v>24.98389761409558</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.27140098404226</v>
+        <v>14.12293922564209</v>
       </c>
       <c r="C18">
-        <v>6.961999776207503</v>
+        <v>9.274843891465267</v>
       </c>
       <c r="D18">
-        <v>5.41207791483285</v>
+        <v>5.906251337122409</v>
       </c>
       <c r="E18">
-        <v>8.635130046627962</v>
+        <v>12.17480519617139</v>
       </c>
       <c r="F18">
-        <v>21.67233474946669</v>
+        <v>28.03301962783171</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.35349034788748</v>
+        <v>10.26019746299532</v>
       </c>
       <c r="L18">
-        <v>7.429044708793238</v>
+        <v>9.71401631912601</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.13254900410724</v>
+        <v>19.52566634377319</v>
       </c>
       <c r="O18">
-        <v>17.02908146077705</v>
+        <v>24.99381862299775</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.19544455917888</v>
+        <v>14.10103117293333</v>
       </c>
       <c r="C19">
-        <v>6.961082695310572</v>
+        <v>9.274729365844131</v>
       </c>
       <c r="D19">
-        <v>5.401652902912222</v>
+        <v>5.902614047137746</v>
       </c>
       <c r="E19">
-        <v>8.621104321946666</v>
+        <v>12.17469284349923</v>
       </c>
       <c r="F19">
-        <v>21.63282795599139</v>
+        <v>28.03210863862351</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.30053689020454</v>
+        <v>10.24467493115005</v>
       </c>
       <c r="L19">
-        <v>7.410334481394414</v>
+        <v>9.711988996210037</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.1504452798298</v>
+        <v>19.53054799826046</v>
       </c>
       <c r="O19">
-        <v>17.01651516895974</v>
+        <v>24.99726235991109</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.53496247488668</v>
+        <v>14.19951518514541</v>
       </c>
       <c r="C20">
-        <v>6.965257435252979</v>
+        <v>9.275262926296769</v>
       </c>
       <c r="D20">
-        <v>5.448384371994247</v>
+        <v>5.918934451062703</v>
       </c>
       <c r="E20">
-        <v>8.684449646440838</v>
+        <v>12.17534743186173</v>
       </c>
       <c r="F20">
-        <v>21.81147986475072</v>
+        <v>28.0366592146169</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.53731007636147</v>
+        <v>10.31444441711294</v>
       </c>
       <c r="L20">
-        <v>7.494443156674231</v>
+        <v>9.721219140453599</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.07005110401988</v>
+        <v>19.50869503137073</v>
       </c>
       <c r="O20">
-        <v>17.07409234609815</v>
+        <v>24.98210167835192</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.63579535921565</v>
+        <v>14.52826126427391</v>
       </c>
       <c r="C21">
-        <v>6.980125887450598</v>
+        <v>9.277372024533227</v>
       </c>
       <c r="D21">
-        <v>5.602135580629599</v>
+        <v>5.97291698778196</v>
       </c>
       <c r="E21">
-        <v>8.90116878472857</v>
+        <v>12.18014887703715</v>
       </c>
       <c r="F21">
-        <v>22.42667354324415</v>
+        <v>28.05982946780632</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.30624860406834</v>
+        <v>10.54718146924054</v>
       </c>
       <c r="L21">
-        <v>7.775271010500717</v>
+        <v>9.754085969944883</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.80227844269727</v>
+        <v>19.43727999773177</v>
       </c>
       <c r="O21">
-        <v>17.28586446675439</v>
+        <v>24.93705847347633</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.32582692553201</v>
+        <v>14.7411451587297</v>
       </c>
       <c r="C22">
-        <v>6.990478343652478</v>
+        <v>9.278984095371746</v>
       </c>
       <c r="D22">
-        <v>5.700110559146246</v>
+        <v>6.007544665485986</v>
       </c>
       <c r="E22">
-        <v>9.045583558085447</v>
+        <v>12.18521937814688</v>
       </c>
       <c r="F22">
-        <v>22.83961254947351</v>
+        <v>28.08082912571273</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.78908070668447</v>
+        <v>10.69778399166001</v>
       </c>
       <c r="L22">
-        <v>7.957268189672178</v>
+        <v>9.776927255287404</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.62885765523749</v>
+        <v>19.39209673296483</v>
       </c>
       <c r="O22">
-        <v>17.4383226259461</v>
+        <v>24.91201950397994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.9602161737895</v>
+        <v>14.62772852228625</v>
       </c>
       <c r="C23">
-        <v>6.984894418402186</v>
+        <v>9.278102463288658</v>
       </c>
       <c r="D23">
-        <v>5.648054048602825</v>
+        <v>5.989124130666118</v>
       </c>
       <c r="E23">
-        <v>8.968260211270101</v>
+        <v>12.1823368120472</v>
       </c>
       <c r="F23">
-        <v>22.61824089726656</v>
+        <v>28.06908658935565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.53318050619587</v>
+        <v>10.61755811234484</v>
       </c>
       <c r="L23">
-        <v>7.860287117055035</v>
+        <v>9.764613331122456</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.7212812792208</v>
+        <v>19.41607588376609</v>
       </c>
       <c r="O23">
-        <v>17.35564215099226</v>
+        <v>24.92498037905655</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.51646866131459</v>
+        <v>14.19411402060214</v>
       </c>
       <c r="C24">
-        <v>6.96502502943753</v>
+        <v>9.27523242985718</v>
       </c>
       <c r="D24">
-        <v>5.445830150740917</v>
+        <v>5.918041370104796</v>
       </c>
       <c r="E24">
-        <v>8.680956083139439</v>
+        <v>12.17530167951216</v>
       </c>
       <c r="F24">
-        <v>21.80161223142131</v>
+        <v>28.03637963247326</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.52440786744764</v>
+        <v>10.31061866418095</v>
       </c>
       <c r="L24">
-        <v>7.489830339355508</v>
+        <v>9.720705234173655</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.07445676619789</v>
+        <v>19.5098875226939</v>
       </c>
       <c r="O24">
-        <v>17.07086260442653</v>
+        <v>24.98291207164154</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.83081467111618</v>
+        <v>13.7203768405384</v>
       </c>
       <c r="C25">
-        <v>6.946271943820396</v>
+        <v>9.273153803777564</v>
       </c>
       <c r="D25">
-        <v>5.217465275533191</v>
+        <v>5.838681877528059</v>
       </c>
       <c r="E25">
-        <v>8.383765568288922</v>
+        <v>12.17605202975852</v>
       </c>
       <c r="F25">
-        <v>20.96916443843072</v>
+        <v>28.02634389303926</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.35105621646104</v>
+        <v>9.97474682825227</v>
       </c>
       <c r="L25">
-        <v>7.085152636315552</v>
+        <v>9.67932182067581</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.46323305406485</v>
+        <v>19.61751725049814</v>
       </c>
       <c r="O25">
-        <v>16.82137296237517</v>
+        <v>25.06424696071553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_64/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36918167694865</v>
+        <v>14.4769729429429</v>
       </c>
       <c r="C2">
-        <v>9.272512497948107</v>
+        <v>6.934718119547951</v>
       </c>
       <c r="D2">
-        <v>5.778062008106062</v>
+        <v>5.041175978849684</v>
       </c>
       <c r="E2">
-        <v>12.1838076560925</v>
+        <v>8.176712389978807</v>
       </c>
       <c r="F2">
-        <v>28.04071463641512</v>
+        <v>20.39956023867998</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.725229834376744</v>
+        <v>11.41333142123636</v>
       </c>
       <c r="L2">
-        <v>9.654118617904535</v>
+        <v>6.784750111951587</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.7023607037884</v>
+        <v>12.7573169112623</v>
       </c>
       <c r="O2">
-        <v>25.14028807524863</v>
+        <v>16.6840598060047</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.13119030080535</v>
+        <v>13.55405768214716</v>
       </c>
       <c r="C3">
-        <v>9.272639888474773</v>
+        <v>6.928272483448072</v>
       </c>
       <c r="D3">
-        <v>5.735678529978734</v>
+        <v>4.917014135929366</v>
       </c>
       <c r="E3">
-        <v>12.19356746323869</v>
+        <v>8.04413798816754</v>
       </c>
       <c r="F3">
-        <v>28.06402801069375</v>
+        <v>20.0412811024096</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.555774066044942</v>
+        <v>10.7317927414962</v>
       </c>
       <c r="L3">
-        <v>9.640379588668608</v>
+        <v>6.580804472362551</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.76338015506624</v>
+        <v>12.96201516240185</v>
       </c>
       <c r="O3">
-        <v>25.20186646751767</v>
+        <v>16.61815862899356</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.98559683549393</v>
+        <v>12.97478157446217</v>
       </c>
       <c r="C4">
-        <v>9.272997837982807</v>
+        <v>6.924991624946032</v>
       </c>
       <c r="D4">
-        <v>5.709035498388669</v>
+        <v>4.83861542106235</v>
       </c>
       <c r="E4">
-        <v>12.20178365642184</v>
+        <v>7.966682051479461</v>
       </c>
       <c r="F4">
-        <v>28.08503175340089</v>
+        <v>19.83515469442424</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.451911282571546</v>
+        <v>10.29071393046046</v>
       </c>
       <c r="L4">
-        <v>9.633608499674478</v>
+        <v>6.455842768207258</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.80259224988303</v>
+        <v>13.09051910295018</v>
       </c>
       <c r="O4">
-        <v>25.24461826394898</v>
+        <v>16.59045797942647</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.9264819509243</v>
+        <v>12.73209127340462</v>
       </c>
       <c r="C5">
-        <v>9.27321444502256</v>
+        <v>6.923824074381973</v>
       </c>
       <c r="D5">
-        <v>5.698026013061099</v>
+        <v>4.806148259280187</v>
       </c>
       <c r="E5">
-        <v>12.20569123904664</v>
+        <v>7.936127219682257</v>
       </c>
       <c r="F5">
-        <v>28.09527168203802</v>
+        <v>19.75465863786034</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.40968817855599</v>
+        <v>10.10531319498836</v>
       </c>
       <c r="L5">
-        <v>9.631270221080007</v>
+        <v>6.405056842757377</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.81901180687411</v>
+        <v>13.14361594517204</v>
       </c>
       <c r="O5">
-        <v>25.26328090185238</v>
+        <v>16.58228151204178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.91668138473353</v>
+        <v>12.69139663816543</v>
       </c>
       <c r="C6">
-        <v>9.273254696618094</v>
+        <v>6.923640415336545</v>
       </c>
       <c r="D6">
-        <v>5.696188805371674</v>
+        <v>4.80072652261114</v>
       </c>
       <c r="E6">
-        <v>12.20637388196929</v>
+        <v>7.931115002882049</v>
       </c>
       <c r="F6">
-        <v>28.09707347280736</v>
+        <v>19.74150411910571</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.402684851734813</v>
+        <v>10.07418693568303</v>
       </c>
       <c r="L6">
-        <v>9.630907443025398</v>
+        <v>6.396634298527427</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.82176489333643</v>
+        <v>13.15247737067085</v>
       </c>
       <c r="O6">
-        <v>25.26645471008668</v>
+        <v>16.58110883509353</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.98479861037407</v>
+        <v>12.97153522336845</v>
       </c>
       <c r="C7">
-        <v>9.273000472270084</v>
+        <v>6.924975193907254</v>
       </c>
       <c r="D7">
-        <v>5.70888763234242</v>
+        <v>4.838179625089177</v>
       </c>
       <c r="E7">
-        <v>12.20183409016055</v>
+        <v>7.966265872073826</v>
       </c>
       <c r="F7">
-        <v>28.08516304976966</v>
+        <v>19.83405490233526</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.451341360798542</v>
+        <v>10.28823641140239</v>
       </c>
       <c r="L7">
-        <v>9.633575257290675</v>
+        <v>6.455157200217681</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.80281190526856</v>
+        <v>13.09123219988863</v>
       </c>
       <c r="O7">
-        <v>25.24486493292666</v>
+        <v>16.59033524087913</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.28705985826047</v>
+        <v>14.14917134730576</v>
       </c>
       <c r="C8">
-        <v>9.272498602780955</v>
+        <v>6.932354717341715</v>
       </c>
       <c r="D8">
-        <v>5.763578839534339</v>
+        <v>4.99882819801434</v>
       </c>
       <c r="E8">
-        <v>12.18671153180527</v>
+        <v>8.130192879994318</v>
       </c>
       <c r="F8">
-        <v>28.04736415674</v>
+        <v>20.27316312494072</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.666796492801961</v>
+        <v>11.18304276517977</v>
       </c>
       <c r="L8">
-        <v>9.64903739697912</v>
+        <v>6.714416863798252</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.72303862707965</v>
+        <v>12.82732531518789</v>
       </c>
       <c r="O8">
-        <v>25.1604934234587</v>
+        <v>16.65863062008274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.88051993990096</v>
+        <v>16.41598535467673</v>
       </c>
       <c r="C9">
-        <v>9.273716838910687</v>
+        <v>6.952235714495855</v>
       </c>
       <c r="D9">
-        <v>5.865762446356571</v>
+        <v>5.295703319320323</v>
       </c>
       <c r="E9">
-        <v>12.17468212701302</v>
+        <v>8.482102945121873</v>
       </c>
       <c r="F9">
-        <v>28.02634610395997</v>
+        <v>21.24295499589903</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.08836208218168</v>
+        <v>12.75774475573596</v>
       </c>
       <c r="L9">
-        <v>9.692451669269396</v>
+        <v>7.221989355071651</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.58039658848083</v>
+        <v>12.33112778010022</v>
       </c>
       <c r="O9">
-        <v>25.0343357762852</v>
+        <v>16.89798309849936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.31240521158933</v>
+        <v>17.91832402238892</v>
       </c>
       <c r="C10">
-        <v>9.275932052549802</v>
+        <v>6.970204623891354</v>
       </c>
       <c r="D10">
-        <v>5.937551829611298</v>
+        <v>5.501551395055608</v>
       </c>
       <c r="E10">
-        <v>12.17655675785764</v>
+        <v>8.757975455146823</v>
       </c>
       <c r="F10">
-        <v>28.04327429014515</v>
+        <v>22.01953614262801</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.39439118618923</v>
+        <v>13.80488560549044</v>
       </c>
       <c r="L10">
-        <v>9.732158788330286</v>
+        <v>7.590860365066867</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.48392081074432</v>
+        <v>11.97803559621234</v>
       </c>
       <c r="O10">
-        <v>24.96570272352355</v>
+        <v>17.14347582193765</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.50706629594707</v>
+        <v>18.56618460267625</v>
       </c>
       <c r="C11">
-        <v>9.27722169438376</v>
+        <v>6.979125582761414</v>
       </c>
       <c r="D11">
-        <v>5.969456681710498</v>
+        <v>5.592317430724701</v>
       </c>
       <c r="E11">
-        <v>12.17972496434739</v>
+        <v>8.88696140835283</v>
       </c>
       <c r="F11">
-        <v>28.05798632658008</v>
+        <v>22.38617061178194</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.53218297331903</v>
+        <v>14.25757380149386</v>
       </c>
       <c r="L11">
-        <v>9.751876467942912</v>
+        <v>7.757159133604394</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.44182059080064</v>
+        <v>11.81953399479186</v>
       </c>
       <c r="O11">
-        <v>24.93972091132089</v>
+        <v>17.27133094779327</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.58044749519699</v>
+        <v>18.80646181207225</v>
       </c>
       <c r="C12">
-        <v>9.277750173795015</v>
+        <v>6.98261257465298</v>
       </c>
       <c r="D12">
-        <v>5.981426595320527</v>
+        <v>5.626258955512091</v>
       </c>
       <c r="E12">
-        <v>12.18125636423915</v>
+        <v>8.936283640957786</v>
       </c>
       <c r="F12">
-        <v>28.06456257728848</v>
+        <v>22.52687661565838</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.58410726971059</v>
+        <v>14.42561276325672</v>
       </c>
       <c r="L12">
-        <v>9.759576965336885</v>
+        <v>7.819871487930016</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.42613397200694</v>
+        <v>11.75978733597467</v>
       </c>
       <c r="O12">
-        <v>24.93063685954016</v>
+        <v>17.32215212110999</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.56465946377105</v>
+        <v>18.75493759268682</v>
       </c>
       <c r="C13">
-        <v>9.27763457868064</v>
+        <v>6.981856724311193</v>
       </c>
       <c r="D13">
-        <v>5.978853686726512</v>
+        <v>5.618968386041851</v>
       </c>
       <c r="E13">
-        <v>12.18091182146929</v>
+        <v>8.925640322008119</v>
       </c>
       <c r="F13">
-        <v>28.06310161969438</v>
+        <v>22.49649072566336</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.57293652942042</v>
+        <v>14.38957273213842</v>
       </c>
       <c r="L13">
-        <v>9.757908193489843</v>
+        <v>7.806377539494973</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.42950100671261</v>
+        <v>11.77264314998153</v>
       </c>
       <c r="O13">
-        <v>24.93255968993849</v>
+        <v>17.31109869467059</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.51311048532633</v>
+        <v>18.58605328163314</v>
       </c>
       <c r="C14">
-        <v>9.277264371058235</v>
+        <v>6.979410270029828</v>
       </c>
       <c r="D14">
-        <v>5.970443713684759</v>
+        <v>5.595118516536127</v>
       </c>
       <c r="E14">
-        <v>12.17984431449424</v>
+        <v>8.891009729944722</v>
       </c>
       <c r="F14">
-        <v>28.05850723542914</v>
+        <v>22.39770940485285</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.53646019345647</v>
+        <v>14.27146616907247</v>
       </c>
       <c r="L14">
-        <v>9.752505330438401</v>
+        <v>7.762323992251664</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.44052492281626</v>
+        <v>11.81461328306235</v>
       </c>
       <c r="O14">
-        <v>24.93895842936899</v>
+        <v>17.27546339763768</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.48148980993376</v>
+        <v>18.48195046620283</v>
       </c>
       <c r="C15">
-        <v>9.277042820474753</v>
+        <v>6.977925962700264</v>
       </c>
       <c r="D15">
-        <v>5.965277703422068</v>
+        <v>5.580453386582493</v>
       </c>
       <c r="E15">
-        <v>12.17923358705983</v>
+        <v>8.869859059305796</v>
       </c>
       <c r="F15">
-        <v>28.05582383192399</v>
+        <v>22.33744493495036</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.51408280609756</v>
+        <v>14.19868239738952</v>
       </c>
       <c r="L15">
-        <v>9.7492262473843</v>
+        <v>7.735304646156147</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.44731067087346</v>
+        <v>11.84035600170269</v>
       </c>
       <c r="O15">
-        <v>24.94297615874865</v>
+        <v>17.25395123674141</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.29964098801476</v>
+        <v>17.87527432018112</v>
       </c>
       <c r="C16">
-        <v>9.275853408628123</v>
+        <v>6.969636764360406</v>
       </c>
       <c r="D16">
-        <v>5.935451325052981</v>
+        <v>5.495560343322121</v>
       </c>
       <c r="E16">
-        <v>12.17639619508241</v>
+        <v>8.749614091964025</v>
       </c>
       <c r="F16">
-        <v>28.04245366503965</v>
+        <v>21.99584013828152</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.38535322340602</v>
+        <v>13.77482667155247</v>
       </c>
       <c r="L16">
-        <v>9.730903143688058</v>
+        <v>7.579958096646306</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.48670802053663</v>
+        <v>11.98843416709125</v>
       </c>
       <c r="O16">
-        <v>24.96750624263573</v>
+        <v>17.13545258381749</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.18756701828569</v>
+        <v>17.49403222860326</v>
       </c>
       <c r="C17">
-        <v>9.275195653114395</v>
+        <v>6.964743851457937</v>
       </c>
       <c r="D17">
-        <v>5.916958526178123</v>
+        <v>5.442732739289673</v>
       </c>
       <c r="E17">
-        <v>12.1752477325567</v>
+        <v>8.676724379930988</v>
       </c>
       <c r="F17">
-        <v>28.03604534447198</v>
+        <v>21.78966197334985</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.30598119744872</v>
+        <v>13.50875584614382</v>
       </c>
       <c r="L17">
-        <v>9.720083487309262</v>
+        <v>7.484238943695065</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.51133390676499</v>
+        <v>12.07979754650891</v>
       </c>
       <c r="O17">
-        <v>24.98389761409558</v>
+        <v>17.06695880590635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.12293922564209</v>
+        <v>17.27140098404227</v>
       </c>
       <c r="C18">
-        <v>9.274843891465267</v>
+        <v>6.961999776207768</v>
       </c>
       <c r="D18">
-        <v>5.906251337122409</v>
+        <v>5.4120779148328</v>
       </c>
       <c r="E18">
-        <v>12.17480519617139</v>
+        <v>8.635130046628001</v>
       </c>
       <c r="F18">
-        <v>28.03301962783171</v>
+        <v>21.67233474946661</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.26019746299532</v>
+        <v>13.35349034788755</v>
       </c>
       <c r="L18">
-        <v>9.71401631912601</v>
+        <v>7.429044708793242</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52566634377319</v>
+        <v>12.13254900410717</v>
       </c>
       <c r="O18">
-        <v>24.99381862299775</v>
+        <v>17.02908146077694</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.10103117293333</v>
+        <v>17.19544455917891</v>
       </c>
       <c r="C19">
-        <v>9.274729365844131</v>
+        <v>6.961082695310187</v>
       </c>
       <c r="D19">
-        <v>5.902614047137746</v>
+        <v>5.401652902912431</v>
       </c>
       <c r="E19">
-        <v>12.17469284349923</v>
+        <v>8.6211043219466</v>
       </c>
       <c r="F19">
-        <v>28.03210863862351</v>
+        <v>21.63282795599125</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.24467493115005</v>
+        <v>13.30053689020454</v>
       </c>
       <c r="L19">
-        <v>9.711988996210037</v>
+        <v>7.410334481394404</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.53054799826046</v>
+        <v>12.1504452798297</v>
       </c>
       <c r="O19">
-        <v>24.99726235991109</v>
+        <v>17.01651516895966</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.19951518514541</v>
+        <v>17.53496247488671</v>
       </c>
       <c r="C20">
-        <v>9.275262926296769</v>
+        <v>6.965257435253244</v>
       </c>
       <c r="D20">
-        <v>5.918934451062703</v>
+        <v>5.448384371994259</v>
       </c>
       <c r="E20">
-        <v>12.17534743186173</v>
+        <v>8.684449646440868</v>
       </c>
       <c r="F20">
-        <v>28.0366592146169</v>
+        <v>21.81147986475053</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.31444441711294</v>
+        <v>13.53731007636155</v>
       </c>
       <c r="L20">
-        <v>9.721219140453599</v>
+        <v>7.494443156674219</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.50869503137073</v>
+        <v>12.07005110401974</v>
       </c>
       <c r="O20">
-        <v>24.98210167835192</v>
+        <v>17.07409234609797</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.52826126427391</v>
+        <v>18.63579535921562</v>
       </c>
       <c r="C21">
-        <v>9.277372024533227</v>
+        <v>6.980125887450854</v>
       </c>
       <c r="D21">
-        <v>5.97291698778196</v>
+        <v>5.602135580629481</v>
       </c>
       <c r="E21">
-        <v>12.18014887703715</v>
+        <v>8.901168784728705</v>
       </c>
       <c r="F21">
-        <v>28.05982946780632</v>
+        <v>22.42667354324418</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.54718146924054</v>
+        <v>14.30624860406834</v>
       </c>
       <c r="L21">
-        <v>9.754085969944883</v>
+        <v>7.775271010500783</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.43727999773177</v>
+        <v>11.80227844269727</v>
       </c>
       <c r="O21">
-        <v>24.93705847347633</v>
+        <v>17.2858644667544</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.7411451587297</v>
+        <v>19.32582692553209</v>
       </c>
       <c r="C22">
-        <v>9.278984095371746</v>
+        <v>6.990478343652484</v>
       </c>
       <c r="D22">
-        <v>6.007544665485986</v>
+        <v>5.700110559146135</v>
       </c>
       <c r="E22">
-        <v>12.18521937814688</v>
+        <v>9.045583558085431</v>
       </c>
       <c r="F22">
-        <v>28.08082912571273</v>
+        <v>22.83961254947347</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.69778399166001</v>
+        <v>14.7890807066845</v>
       </c>
       <c r="L22">
-        <v>9.776927255287404</v>
+        <v>7.957268189672193</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.39209673296483</v>
+        <v>11.62885765523745</v>
       </c>
       <c r="O22">
-        <v>24.91201950397994</v>
+        <v>17.43832262594602</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.62772852228625</v>
+        <v>18.96021617378951</v>
       </c>
       <c r="C23">
-        <v>9.278102463288658</v>
+        <v>6.984894418401923</v>
       </c>
       <c r="D23">
-        <v>5.989124130666118</v>
+        <v>5.648054048602814</v>
       </c>
       <c r="E23">
-        <v>12.1823368120472</v>
+        <v>8.968260211270145</v>
       </c>
       <c r="F23">
-        <v>28.06908658935565</v>
+        <v>22.61824089726668</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.61755811234484</v>
+        <v>14.53318050619582</v>
       </c>
       <c r="L23">
-        <v>9.764613331122456</v>
+        <v>7.860287117055065</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.41607588376609</v>
+        <v>11.7212812792209</v>
       </c>
       <c r="O23">
-        <v>24.92498037905655</v>
+        <v>17.35564215099242</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.19411402060214</v>
+        <v>17.51646866131458</v>
       </c>
       <c r="C24">
-        <v>9.27523242985718</v>
+        <v>6.965025029437536</v>
       </c>
       <c r="D24">
-        <v>5.918041370104796</v>
+        <v>5.445830150741032</v>
       </c>
       <c r="E24">
-        <v>12.17530167951216</v>
+        <v>8.680956083139439</v>
       </c>
       <c r="F24">
-        <v>28.03637963247326</v>
+        <v>21.80161223142127</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.31061866418095</v>
+        <v>13.52440786744764</v>
       </c>
       <c r="L24">
-        <v>9.720705234173655</v>
+        <v>7.489830339355512</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.5098875226939</v>
+        <v>12.07445676619788</v>
       </c>
       <c r="O24">
-        <v>24.98291207164154</v>
+        <v>17.07086260442652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.7203768405384</v>
+        <v>15.83081467111624</v>
       </c>
       <c r="C25">
-        <v>9.273153803777564</v>
+        <v>6.946271943820134</v>
       </c>
       <c r="D25">
-        <v>5.838681877528059</v>
+        <v>5.217465275533024</v>
       </c>
       <c r="E25">
-        <v>12.17605202975852</v>
+        <v>8.383765568289023</v>
       </c>
       <c r="F25">
-        <v>28.02634389303926</v>
+        <v>20.96916443843067</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.97474682825227</v>
+        <v>12.3510562164611</v>
       </c>
       <c r="L25">
-        <v>9.67932182067581</v>
+        <v>7.085152636315575</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.61751725049814</v>
+        <v>12.46323305406478</v>
       </c>
       <c r="O25">
-        <v>25.06424696071553</v>
+        <v>16.82137296237503</v>
       </c>
     </row>
   </sheetData>
